--- a/mvc/templates/template_btm_source_metadata.xlsx
+++ b/mvc/templates/template_btm_source_metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webroot\TWHistorica\mvc\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webroot\BTMuseum\mvc\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>CLASS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,9 @@
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -790,7 +793,9 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
